--- a/ArticleManage/main_working_folder/output_folders/Data 134 Preparation of phosphoric acid/Data134_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 134 Preparation of phosphoric acid/Data134_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 AC_0-400-1  0-1-0-900 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 AC_15-400-1  0-1-0-900" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC_30-400-1  0-1-0-900" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 AC_45-400-1  0-1-0-900" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 AC_60-400-1  0-1-0-900" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 AC_75-400-1  0-1-0-900" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 AC_0-400-1  0&amp;1&amp;0&amp;900 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 AC_15-400-1  0&amp;1&amp;0&amp;900" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC_30-400-1  0&amp;1&amp;0&amp;900" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 AC_45-400-1  0&amp;1&amp;0&amp;900" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 AC_60-400-1  0&amp;1&amp;0&amp;900" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 AC_75-400-1  0&amp;1&amp;0&amp;900" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_0-400-1  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_0-400-1  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_0-400-1  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_0-400-1  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_15-400-1  0-1-0-900'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_15-400-1  0&amp;1&amp;0&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_15-400-1  0-1-0-900'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_15-400-1  0&amp;1&amp;0&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_30-400-1  0-1-0-900'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_30-400-1  0&amp;1&amp;0&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_30-400-1  0-1-0-900'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_30-400-1  0&amp;1&amp;0&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_45-400-1  0-1-0-900'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_45-400-1  0&amp;1&amp;0&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_45-400-1  0-1-0-900'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_45-400-1  0&amp;1&amp;0&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_60-400-1  0-1-0-900'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_60-400-1  0&amp;1&amp;0&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_60-400-1  0-1-0-900'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_60-400-1  0&amp;1&amp;0&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_75-400-1  0-1-0-900'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC_75-400-1  0&amp;1&amp;0&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC_75-400-1  0-1-0-900'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC_75-400-1  0&amp;1&amp;0&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
